--- a/fifty_one/measurements/Updated_carapace_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_carapace_Filtered_Data_with_real_length.xlsx
@@ -759,7 +759,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>67ccc043cc2150323bc04bad</t>
+          <t>67cd4bdcb76385b031c31d48</t>
         </is>
       </c>
       <c r="X2" t="n">
@@ -922,7 +922,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>67ccc043cc2150323bc04bb1</t>
+          <t>67cd4bdcb76385b031c31d4c</t>
         </is>
       </c>
       <c r="X3" t="n">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>67ccc043cc2150323bc04baf</t>
+          <t>67cd4bdcb76385b031c31d4a</t>
         </is>
       </c>
       <c r="X4" t="n">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>67ccc043cc2150323bc04bb3</t>
+          <t>67cd4bdcb76385b031c31d4e</t>
         </is>
       </c>
       <c r="X5" t="n">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>67ccc047cc2150323bc04ed1</t>
+          <t>67cd4be2b76385b031c3206c</t>
         </is>
       </c>
       <c r="X6" t="n">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>67ccc047cc2150323bc04ed3</t>
+          <t>67cd4be2b76385b031c3206e</t>
         </is>
       </c>
       <c r="X7" t="n">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>67ccc047cc2150323bc04ed5</t>
+          <t>67cd4be2b76385b031c32070</t>
         </is>
       </c>
       <c r="X8" t="n">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>67ccc049cc2150323bc0504d</t>
+          <t>67cd4be4b76385b031c321e8</t>
         </is>
       </c>
       <c r="X9" t="n">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>67ccc049cc2150323bc0504b</t>
+          <t>67cd4be4b76385b031c321e6</t>
         </is>
       </c>
       <c r="X10" t="n">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>67ccc046cc2150323bc04d74</t>
+          <t>67cd4be0b76385b031c31f0f</t>
         </is>
       </c>
       <c r="X11" t="n">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>67ccc046cc2150323bc04d72</t>
+          <t>67cd4be0b76385b031c31f0d</t>
         </is>
       </c>
       <c r="X12" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>67ccc046cc2150323bc04d78</t>
+          <t>67cd4be0b76385b031c31f13</t>
         </is>
       </c>
       <c r="X13" t="n">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>67ccc046cc2150323bc04d76</t>
+          <t>67cd4be0b76385b031c31f11</t>
         </is>
       </c>
       <c r="X14" t="n">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>67ccc044cc2150323bc04c8e</t>
+          <t>67cd4bdeb76385b031c31e29</t>
         </is>
       </c>
       <c r="X15" t="n">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>67ccc044cc2150323bc04c8c</t>
+          <t>67cd4bdeb76385b031c31e27</t>
         </is>
       </c>
       <c r="X16" t="n">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>67ccc048cc2150323bc04f31</t>
+          <t>67cd4be2b76385b031c320cc</t>
         </is>
       </c>
       <c r="X17" t="n">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>67ccc048cc2150323bc04f33</t>
+          <t>67cd4be2b76385b031c320ce</t>
         </is>
       </c>
       <c r="X18" t="n">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>67ccc044cc2150323bc04c33</t>
+          <t>67cd4bddb76385b031c31dce</t>
         </is>
       </c>
       <c r="X19" t="n">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>67ccc044cc2150323bc04c31</t>
+          <t>67cd4bddb76385b031c31dcc</t>
         </is>
       </c>
       <c r="X20" t="n">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>67ccc044cc2150323bc04c37</t>
+          <t>67cd4bddb76385b031c31dd2</t>
         </is>
       </c>
       <c r="X21" t="n">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>67ccc042cc2150323bc04b69</t>
+          <t>67cd4bdbb76385b031c31d04</t>
         </is>
       </c>
       <c r="X22" t="n">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>67ccc042cc2150323bc04b6b</t>
+          <t>67cd4bdbb76385b031c31d06</t>
         </is>
       </c>
       <c r="X23" t="n">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>67ccc042cc2150323bc04b6d</t>
+          <t>67cd4bdbb76385b031c31d08</t>
         </is>
       </c>
       <c r="X24" t="n">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>67ccc046cc2150323bc04da3</t>
+          <t>67cd4be0b76385b031c31f3e</t>
         </is>
       </c>
       <c r="X25" t="n">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>67ccc046cc2150323bc04da1</t>
+          <t>67cd4be0b76385b031c31f3c</t>
         </is>
       </c>
       <c r="X26" t="n">
@@ -4834,7 +4834,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>67ccc046cc2150323bc04da5</t>
+          <t>67cd4be0b76385b031c31f40</t>
         </is>
       </c>
       <c r="X27" t="n">
@@ -5690,7 +5690,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>67ccc045cc2150323bc04d39</t>
+          <t>67cd4be0b76385b031c31ed4</t>
         </is>
       </c>
       <c r="X35" t="n">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>67ccc045cc2150323bc04d43</t>
+          <t>67cd4be0b76385b031c31ede</t>
         </is>
       </c>
       <c r="X36" t="n">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>67ccc045cc2150323bc04d3f</t>
+          <t>67cd4be0b76385b031c31eda</t>
         </is>
       </c>
       <c r="X37" t="n">
@@ -6179,7 +6179,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>67ccc045cc2150323bc04d37</t>
+          <t>67cd4be0b76385b031c31ed2</t>
         </is>
       </c>
       <c r="X38" t="n">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>67ccc045cc2150323bc04d3d</t>
+          <t>67cd4be0b76385b031c31ed8</t>
         </is>
       </c>
       <c r="X39" t="n">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>67ccc046cc2150323bc04df9</t>
+          <t>67cd4be1b76385b031c31f94</t>
         </is>
       </c>
       <c r="X40" t="n">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>67ccc046cc2150323bc04dfd</t>
+          <t>67cd4be1b76385b031c31f98</t>
         </is>
       </c>
       <c r="X41" t="n">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>67ccc046cc2150323bc04e07</t>
+          <t>67cd4be1b76385b031c31fa2</t>
         </is>
       </c>
       <c r="X42" t="n">
@@ -6994,7 +6994,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>67ccc046cc2150323bc04dfb</t>
+          <t>67cd4be1b76385b031c31f96</t>
         </is>
       </c>
       <c r="X43" t="n">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>67ccc044cc2150323bc04bed</t>
+          <t>67cd4bddb76385b031c31d88</t>
         </is>
       </c>
       <c r="X44" t="n">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>67ccc044cc2150323bc04bef</t>
+          <t>67cd4bddb76385b031c31d8a</t>
         </is>
       </c>
       <c r="X45" t="n">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>67ccc044cc2150323bc04bef</t>
+          <t>67cd4bddb76385b031c31d8a</t>
         </is>
       </c>
       <c r="X46" t="n">
@@ -7646,7 +7646,7 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>67ccc046cc2150323bc04dcc</t>
+          <t>67cd4be0b76385b031c31f67</t>
         </is>
       </c>
       <c r="X47" t="n">
@@ -7809,7 +7809,7 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>67ccc046cc2150323bc04dc8</t>
+          <t>67cd4be0b76385b031c31f63</t>
         </is>
       </c>
       <c r="X48" t="n">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>67ccc046cc2150323bc04dc4</t>
+          <t>67cd4be0b76385b031c31f5f</t>
         </is>
       </c>
       <c r="X49" t="n">
@@ -8135,7 +8135,7 @@
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>67ccc046cc2150323bc04dc6</t>
+          <t>67cd4be0b76385b031c31f61</t>
         </is>
       </c>
       <c r="X50" t="n">
@@ -8298,7 +8298,7 @@
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>67ccc048cc2150323bc04ef6</t>
+          <t>67cd4be2b76385b031c32091</t>
         </is>
       </c>
       <c r="X51" t="n">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>67ccc048cc2150323bc04ef2</t>
+          <t>67cd4be2b76385b031c3208d</t>
         </is>
       </c>
       <c r="X52" t="n">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>67ccc048cc2150323bc04f00</t>
+          <t>67cd4be2b76385b031c3209b</t>
         </is>
       </c>
       <c r="X53" t="n">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>67ccc048cc2150323bc04ef4</t>
+          <t>67cd4be2b76385b031c3208f</t>
         </is>
       </c>
       <c r="X54" t="n">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>67ccc048cc2150323bc04ef0</t>
+          <t>67cd4be2b76385b031c3208b</t>
         </is>
       </c>
       <c r="X55" t="n">
@@ -9113,7 +9113,7 @@
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>67ccc047cc2150323bc04e53</t>
+          <t>67cd4be1b76385b031c31fee</t>
         </is>
       </c>
       <c r="X56" t="n">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>67ccc047cc2150323bc04e47</t>
+          <t>67cd4be1b76385b031c31fe2</t>
         </is>
       </c>
       <c r="X57" t="n">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>67ccc047cc2150323bc04e49</t>
+          <t>67cd4be1b76385b031c31fe4</t>
         </is>
       </c>
       <c r="X58" t="n">
@@ -9602,7 +9602,7 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>67ccc047cc2150323bc04e4d</t>
+          <t>67cd4be1b76385b031c31fe8</t>
         </is>
       </c>
       <c r="X59" t="n">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>67ccc047cc2150323bc04e4b</t>
+          <t>67cd4be1b76385b031c31fe6</t>
         </is>
       </c>
       <c r="X60" t="n">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>67ccc047cc2150323bc04e51</t>
+          <t>67cd4be1b76385b031c31fec</t>
         </is>
       </c>
       <c r="X61" t="n">
@@ -10091,7 +10091,7 @@
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>67ccc044cc2150323bc04bda</t>
+          <t>67cd4bddb76385b031c31d75</t>
         </is>
       </c>
       <c r="X62" t="n">
@@ -10254,7 +10254,7 @@
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>67ccc044cc2150323bc04bd8</t>
+          <t>67cd4bddb76385b031c31d73</t>
         </is>
       </c>
       <c r="X63" t="n">
@@ -10417,7 +10417,7 @@
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>67ccc049cc2150323bc05060</t>
+          <t>67cd4be4b76385b031c321fb</t>
         </is>
       </c>
       <c r="X64" t="n">
@@ -10580,7 +10580,7 @@
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>67ccc049cc2150323bc05062</t>
+          <t>67cd4be4b76385b031c321fd</t>
         </is>
       </c>
       <c r="X65" t="n">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>67ccc049cc2150323bc05064</t>
+          <t>67cd4be4b76385b031c321ff</t>
         </is>
       </c>
       <c r="X66" t="n">
@@ -10906,7 +10906,7 @@
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>67ccc047cc2150323bc04e9f</t>
+          <t>67cd4be1b76385b031c3203a</t>
         </is>
       </c>
       <c r="X67" t="n">
@@ -11069,7 +11069,7 @@
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>67ccc047cc2150323bc04e9b</t>
+          <t>67cd4be1b76385b031c32036</t>
         </is>
       </c>
       <c r="X68" t="n">
@@ -11232,7 +11232,7 @@
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>67ccc047cc2150323bc04e99</t>
+          <t>67cd4be1b76385b031c32034</t>
         </is>
       </c>
       <c r="X69" t="n">
@@ -11395,7 +11395,7 @@
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>67ccc047cc2150323bc04e9f</t>
+          <t>67cd4be1b76385b031c3203a</t>
         </is>
       </c>
       <c r="X70" t="n">
@@ -11558,7 +11558,7 @@
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>67ccc048cc2150323bc04f99</t>
+          <t>67cd4be3b76385b031c32134</t>
         </is>
       </c>
       <c r="X71" t="n">
@@ -11721,7 +11721,7 @@
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>67ccc048cc2150323bc04f9b</t>
+          <t>67cd4be3b76385b031c32136</t>
         </is>
       </c>
       <c r="X72" t="n">
@@ -11884,7 +11884,7 @@
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>67ccc048cc2150323bc04f93</t>
+          <t>67cd4be3b76385b031c3212e</t>
         </is>
       </c>
       <c r="X73" t="n">
@@ -12047,7 +12047,7 @@
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>67ccc048cc2150323bc04f91</t>
+          <t>67cd4be3b76385b031c3212c</t>
         </is>
       </c>
       <c r="X74" t="n">
@@ -12210,7 +12210,7 @@
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>67ccc048cc2150323bc04f95</t>
+          <t>67cd4be3b76385b031c32130</t>
         </is>
       </c>
       <c r="X75" t="n">
@@ -12373,7 +12373,7 @@
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>67ccc045cc2150323bc04ca3</t>
+          <t>67cd4bdfb76385b031c31e3e</t>
         </is>
       </c>
       <c r="X76" t="n">
@@ -12536,7 +12536,7 @@
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>67ccc045cc2150323bc04ca1</t>
+          <t>67cd4bdfb76385b031c31e3c</t>
         </is>
       </c>
       <c r="X77" t="n">
@@ -12699,7 +12699,7 @@
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>67ccc045cc2150323bc04ca7</t>
+          <t>67cd4bdfb76385b031c31e42</t>
         </is>
       </c>
       <c r="X78" t="n">
@@ -12862,7 +12862,7 @@
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>67ccc045cc2150323bc04ca5</t>
+          <t>67cd4bdfb76385b031c31e40</t>
         </is>
       </c>
       <c r="X79" t="n">
@@ -13025,7 +13025,7 @@
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>67ccc047cc2150323bc04e32</t>
+          <t>67cd4be1b76385b031c31fcd</t>
         </is>
       </c>
       <c r="X80" t="n">
@@ -13188,7 +13188,7 @@
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>67ccc047cc2150323bc04e30</t>
+          <t>67cd4be1b76385b031c31fcb</t>
         </is>
       </c>
       <c r="X81" t="n">
@@ -13351,7 +13351,7 @@
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>67ccc045cc2150323bc04ce5</t>
+          <t>67cd4bdfb76385b031c31e80</t>
         </is>
       </c>
       <c r="X82" t="n">
@@ -13514,7 +13514,7 @@
       </c>
       <c r="W83" t="inlineStr">
         <is>
-          <t>67ccc045cc2150323bc04ce3</t>
+          <t>67cd4bdfb76385b031c31e7e</t>
         </is>
       </c>
       <c r="X83" t="n">
@@ -13677,7 +13677,7 @@
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>67ccc045cc2150323bc04ce9</t>
+          <t>67cd4bdfb76385b031c31e84</t>
         </is>
       </c>
       <c r="X84" t="n">
@@ -13840,7 +13840,7 @@
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>67ccc044cc2150323bc04c54</t>
+          <t>67cd4bdeb76385b031c31def</t>
         </is>
       </c>
       <c r="X85" t="n">
@@ -14003,7 +14003,7 @@
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>67ccc044cc2150323bc04c56</t>
+          <t>67cd4bdeb76385b031c31df1</t>
         </is>
       </c>
       <c r="X86" t="n">
@@ -14166,7 +14166,7 @@
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>67ccc044cc2150323bc04c5a</t>
+          <t>67cd4bdeb76385b031c31df5</t>
         </is>
       </c>
       <c r="X87" t="n">
@@ -14329,7 +14329,7 @@
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>67ccc045cc2150323bc04ccc</t>
+          <t>67cd4bdfb76385b031c31e67</t>
         </is>
       </c>
       <c r="X88" t="n">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>67ccc045cc2150323bc04cca</t>
+          <t>67cd4bdfb76385b031c31e65</t>
         </is>
       </c>
       <c r="X89" t="n">
@@ -14655,7 +14655,7 @@
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>67ccc049cc2150323bc04fd2</t>
+          <t>67cd4be3b76385b031c3216d</t>
         </is>
       </c>
       <c r="X90" t="n">
@@ -14818,7 +14818,7 @@
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>67ccc049cc2150323bc04fd6</t>
+          <t>67cd4be3b76385b031c32171</t>
         </is>
       </c>
       <c r="X91" t="n">
@@ -14981,7 +14981,7 @@
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>67ccc049cc2150323bc04fce</t>
+          <t>67cd4be3b76385b031c32169</t>
         </is>
       </c>
       <c r="X92" t="n">
@@ -15144,7 +15144,7 @@
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>67ccc049cc2150323bc04fce</t>
+          <t>67cd4be3b76385b031c32169</t>
         </is>
       </c>
       <c r="X93" t="n">
@@ -15307,7 +15307,7 @@
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>67ccc049cc2150323bc04fcc</t>
+          <t>67cd4be3b76385b031c32167</t>
         </is>
       </c>
       <c r="X94" t="n">
@@ -15470,7 +15470,7 @@
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>67ccc049cc2150323bc04fcc</t>
+          <t>67cd4be3b76385b031c32167</t>
         </is>
       </c>
       <c r="X95" t="n">
@@ -15633,7 +15633,7 @@
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>67ccc045cc2150323bc04d0a</t>
+          <t>67cd4bdfb76385b031c31ea5</t>
         </is>
       </c>
       <c r="X96" t="n">
@@ -15796,7 +15796,7 @@
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>67ccc045cc2150323bc04d06</t>
+          <t>67cd4bdfb76385b031c31ea1</t>
         </is>
       </c>
       <c r="X97" t="n">
@@ -15959,7 +15959,7 @@
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>67ccc045cc2150323bc04d0c</t>
+          <t>67cd4bdfb76385b031c31ea7</t>
         </is>
       </c>
       <c r="X98" t="n">
@@ -16122,7 +16122,7 @@
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>67ccc045cc2150323bc04d08</t>
+          <t>67cd4bdfb76385b031c31ea3</t>
         </is>
       </c>
       <c r="X99" t="n">
@@ -16285,7 +16285,7 @@
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>67ccc04acc2150323bc050d4</t>
+          <t>67cd4be5b76385b031c3226f</t>
         </is>
       </c>
       <c r="X100" t="n">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>67ccc04acc2150323bc050d8</t>
+          <t>67cd4be5b76385b031c32273</t>
         </is>
       </c>
       <c r="X101" t="n">
@@ -16611,7 +16611,7 @@
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>67ccc04acc2150323bc050d6</t>
+          <t>67cd4be5b76385b031c32271</t>
         </is>
       </c>
       <c r="X102" t="n">
@@ -16774,7 +16774,7 @@
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>67ccc04acc2150323bc050da</t>
+          <t>67cd4be5b76385b031c32275</t>
         </is>
       </c>
       <c r="X103" t="n">
@@ -16937,7 +16937,7 @@
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>67ccc044cc2150323bc04c77</t>
+          <t>67cd4bdeb76385b031c31e12</t>
         </is>
       </c>
       <c r="X104" t="n">
@@ -17100,7 +17100,7 @@
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>67ccc044cc2150323bc04c79</t>
+          <t>67cd4bdeb76385b031c31e14</t>
         </is>
       </c>
       <c r="X105" t="n">
@@ -17263,7 +17263,7 @@
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>67ccc04ccc2150323bc05101</t>
+          <t>67cd4be5b76385b031c3229c</t>
         </is>
       </c>
       <c r="X106" t="n">
@@ -17426,7 +17426,7 @@
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>67ccc04ccc2150323bc050ff</t>
+          <t>67cd4be5b76385b031c3229a</t>
         </is>
       </c>
       <c r="X107" t="n">
@@ -17589,7 +17589,7 @@
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>67ccc04ccc2150323bc05105</t>
+          <t>67cd4be5b76385b031c322a0</t>
         </is>
       </c>
       <c r="X108" t="n">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>67ccc04ccc2150323bc05103</t>
+          <t>67cd4be5b76385b031c3229e</t>
         </is>
       </c>
       <c r="X109" t="n">
@@ -17915,7 +17915,7 @@
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>67ccc048cc2150323bc04f4a</t>
+          <t>67cd4be2b76385b031c320e5</t>
         </is>
       </c>
       <c r="X110" t="n">
@@ -18078,7 +18078,7 @@
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>67ccc048cc2150323bc04f4c</t>
+          <t>67cd4be2b76385b031c320e7</t>
         </is>
       </c>
       <c r="X111" t="n">
@@ -18241,7 +18241,7 @@
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>67ccc048cc2150323bc04f69</t>
+          <t>67cd4be2b76385b031c32104</t>
         </is>
       </c>
       <c r="X112" t="n">
@@ -18404,7 +18404,7 @@
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>67ccc048cc2150323bc04f65</t>
+          <t>67cd4be2b76385b031c32100</t>
         </is>
       </c>
       <c r="X113" t="n">
@@ -18567,7 +18567,7 @@
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>67ccc048cc2150323bc04f63</t>
+          <t>67cd4be2b76385b031c320fe</t>
         </is>
       </c>
       <c r="X114" t="n">
@@ -18730,7 +18730,7 @@
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>67ccc04acc2150323bc0507f</t>
+          <t>67cd4be4b76385b031c3221a</t>
         </is>
       </c>
       <c r="X115" t="n">
@@ -18893,7 +18893,7 @@
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>67ccc04acc2150323bc0507f</t>
+          <t>67cd4be4b76385b031c3221a</t>
         </is>
       </c>
       <c r="X116" t="n">
@@ -19056,7 +19056,7 @@
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>67ccc048cc2150323bc04f86</t>
+          <t>67cd4be3b76385b031c32121</t>
         </is>
       </c>
       <c r="X117" t="n">
@@ -19219,7 +19219,7 @@
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>67ccc047cc2150323bc04e88</t>
+          <t>67cd4be1b76385b031c32023</t>
         </is>
       </c>
       <c r="X118" t="n">
@@ -19382,7 +19382,7 @@
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>67ccc044cc2150323bc04c14</t>
+          <t>67cd4bddb76385b031c31daf</t>
         </is>
       </c>
       <c r="X119" t="n">
@@ -19545,7 +19545,7 @@
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>67ccc044cc2150323bc04c12</t>
+          <t>67cd4bddb76385b031c31dad</t>
         </is>
       </c>
       <c r="X120" t="n">
@@ -19708,7 +19708,7 @@
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>67ccc044cc2150323bc04c10</t>
+          <t>67cd4bddb76385b031c31dab</t>
         </is>
       </c>
       <c r="X121" t="n">
@@ -19871,7 +19871,7 @@
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>67ccc043cc2150323bc04b92</t>
+          <t>67cd4bdcb76385b031c31d2d</t>
         </is>
       </c>
       <c r="X122" t="n">
@@ -20034,7 +20034,7 @@
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>67ccc043cc2150323bc04b8e</t>
+          <t>67cd4bdcb76385b031c31d29</t>
         </is>
       </c>
       <c r="X123" t="n">
@@ -20197,7 +20197,7 @@
       </c>
       <c r="W124" t="inlineStr">
         <is>
-          <t>67ccc049cc2150323bc0501c</t>
+          <t>67cd4be4b76385b031c321b7</t>
         </is>
       </c>
       <c r="X124" t="n">
@@ -20360,7 +20360,7 @@
       </c>
       <c r="W125" t="inlineStr">
         <is>
-          <t>67ccc049cc2150323bc0501e</t>
+          <t>67cd4be4b76385b031c321b9</t>
         </is>
       </c>
       <c r="X125" t="n">
@@ -20523,7 +20523,7 @@
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>67ccc049cc2150323bc05022</t>
+          <t>67cd4be4b76385b031c321bd</t>
         </is>
       </c>
       <c r="X126" t="n">
@@ -20686,7 +20686,7 @@
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>67ccc049cc2150323bc05020</t>
+          <t>67cd4be4b76385b031c321bb</t>
         </is>
       </c>
       <c r="X127" t="n">
@@ -20849,7 +20849,7 @@
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>67ccc049cc2150323bc05009</t>
+          <t>67cd4be3b76385b031c321a4</t>
         </is>
       </c>
       <c r="X128" t="n">
@@ -21012,7 +21012,7 @@
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>67ccc049cc2150323bc05007</t>
+          <t>67cd4be3b76385b031c321a2</t>
         </is>
       </c>
       <c r="X129" t="n">
@@ -21175,7 +21175,7 @@
       </c>
       <c r="W130" t="inlineStr">
         <is>
-          <t>67ccc047cc2150323bc04ec0</t>
+          <t>67cd4be2b76385b031c3205b</t>
         </is>
       </c>
       <c r="X130" t="n">
@@ -21338,7 +21338,7 @@
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>67ccc04acc2150323bc050a5</t>
+          <t>67cd4be5b76385b031c32240</t>
         </is>
       </c>
       <c r="X131" t="n">
@@ -21501,7 +21501,7 @@
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>67ccc04acc2150323bc050ad</t>
+          <t>67cd4be5b76385b031c32248</t>
         </is>
       </c>
       <c r="X132" t="n">
@@ -21664,7 +21664,7 @@
       </c>
       <c r="W133" t="inlineStr">
         <is>
-          <t>67ccc04acc2150323bc050a7</t>
+          <t>67cd4be5b76385b031c32242</t>
         </is>
       </c>
       <c r="X133" t="n">
@@ -21827,7 +21827,7 @@
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>67ccc04acc2150323bc050a9</t>
+          <t>67cd4be5b76385b031c32244</t>
         </is>
       </c>
       <c r="X134" t="n">
@@ -21990,7 +21990,7 @@
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>67ccc04acc2150323bc05094</t>
+          <t>67cd4be5b76385b031c3222f</t>
         </is>
       </c>
       <c r="X135" t="n">
@@ -22153,7 +22153,7 @@
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>67ccc04ccc2150323bc05132</t>
+          <t>67cd4be6b76385b031c322cd</t>
         </is>
       </c>
       <c r="X136" t="n">
@@ -22316,7 +22316,7 @@
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>67ccc04ccc2150323bc05130</t>
+          <t>67cd4be6b76385b031c322cb</t>
         </is>
       </c>
       <c r="X137" t="n">
@@ -22479,7 +22479,7 @@
       </c>
       <c r="W138" t="inlineStr">
         <is>
-          <t>67ccc04dcc2150323bc0519b</t>
+          <t>67cd4be7b76385b031c32336</t>
         </is>
       </c>
       <c r="X138" t="n">
@@ -22642,7 +22642,7 @@
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>67ccc04dcc2150323bc05197</t>
+          <t>67cd4be7b76385b031c32332</t>
         </is>
       </c>
       <c r="X139" t="n">
@@ -22904,7 +22904,7 @@
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>67ccc04dcc2150323bc05211</t>
+          <t>67cd4be7b76385b031c323ac</t>
         </is>
       </c>
       <c r="X141" t="n">
@@ -23265,7 +23265,7 @@
       </c>
       <c r="W144" t="inlineStr">
         <is>
-          <t>67ccc04ecc2150323bc052af</t>
+          <t>67cd4be8b76385b031c3244a</t>
         </is>
       </c>
       <c r="X144" t="n">
@@ -23626,7 +23626,7 @@
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>67ccc04ecc2150323bc052cd</t>
+          <t>67cd4be8b76385b031c32468</t>
         </is>
       </c>
       <c r="X147" t="n">
@@ -23789,7 +23789,7 @@
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>67ccc04ecc2150323bc052cf</t>
+          <t>67cd4be8b76385b031c3246a</t>
         </is>
       </c>
       <c r="X148" t="n">
@@ -24051,7 +24051,7 @@
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>67ccc04dcc2150323bc051b0</t>
+          <t>67cd4be7b76385b031c3234b</t>
         </is>
       </c>
       <c r="X150" t="n">
@@ -24214,7 +24214,7 @@
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>67ccc04dcc2150323bc05246</t>
+          <t>67cd4be8b76385b031c323e1</t>
         </is>
       </c>
       <c r="X151" t="n">
@@ -24773,7 +24773,7 @@
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>67ccc04ecc2150323bc05269</t>
+          <t>67cd4be8b76385b031c32404</t>
         </is>
       </c>
       <c r="X156" t="n">
@@ -24936,7 +24936,7 @@
       </c>
       <c r="W157" t="inlineStr">
         <is>
-          <t>67ccc04dcc2150323bc051d2</t>
+          <t>67cd4be7b76385b031c3236d</t>
         </is>
       </c>
       <c r="X157" t="n">
@@ -25099,7 +25099,7 @@
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>67ccc04dcc2150323bc05251</t>
+          <t>67cd4be8b76385b031c323ec</t>
         </is>
       </c>
       <c r="X158" t="n">
@@ -25856,7 +25856,7 @@
       </c>
       <c r="W165" t="inlineStr">
         <is>
-          <t>67ccc04dcc2150323bc051df</t>
+          <t>67cd4be7b76385b031c3237a</t>
         </is>
       </c>
       <c r="X165" t="n">
@@ -26118,7 +26118,7 @@
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>67ccc04dcc2150323bc051f5</t>
+          <t>67cd4be7b76385b031c32390</t>
         </is>
       </c>
       <c r="X167" t="n">
@@ -26281,7 +26281,7 @@
       </c>
       <c r="W168" t="inlineStr">
         <is>
-          <t>67ccc04ecc2150323bc0527f</t>
+          <t>67cd4be8b76385b031c3241a</t>
         </is>
       </c>
       <c r="X168" t="n">
@@ -26444,7 +26444,7 @@
       </c>
       <c r="W169" t="inlineStr">
         <is>
-          <t>67ccc04ccc2150323bc05167</t>
+          <t>67cd4be6b76385b031c32302</t>
         </is>
       </c>
       <c r="X169" t="n">
@@ -26805,7 +26805,7 @@
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>67ccc04dcc2150323bc05200</t>
+          <t>67cd4be7b76385b031c3239b</t>
         </is>
       </c>
       <c r="X172" t="n">
@@ -26968,7 +26968,7 @@
       </c>
       <c r="W173" t="inlineStr">
         <is>
-          <t>67ccc04ecc2150323bc05274</t>
+          <t>67cd4be8b76385b031c3240f</t>
         </is>
       </c>
       <c r="X173" t="n">
@@ -27131,7 +27131,7 @@
       </c>
       <c r="W174" t="inlineStr">
         <is>
-          <t>67ccc04dcc2150323bc051ea</t>
+          <t>67cd4be7b76385b031c32385</t>
         </is>
       </c>
       <c r="X174" t="n">
@@ -27294,7 +27294,7 @@
       </c>
       <c r="W175" t="inlineStr">
         <is>
-          <t>67ccc04ecc2150323bc05297</t>
+          <t>67cd4be8b76385b031c32432</t>
         </is>
       </c>
       <c r="X175" t="n">
@@ -27457,7 +27457,7 @@
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>67ccc04dcc2150323bc051bf</t>
+          <t>67cd4be7b76385b031c3235a</t>
         </is>
       </c>
       <c r="X176" t="n">
@@ -27620,7 +27620,7 @@
       </c>
       <c r="W177" t="inlineStr">
         <is>
-          <t>67ccc04dcc2150323bc051bf</t>
+          <t>67cd4be7b76385b031c3235a</t>
         </is>
       </c>
       <c r="X177" t="n">
@@ -27783,7 +27783,7 @@
       </c>
       <c r="W178" t="inlineStr">
         <is>
-          <t>67ccc04ccc2150323bc0514d</t>
+          <t>67cd4be6b76385b031c322e8</t>
         </is>
       </c>
       <c r="X178" t="n">
@@ -27946,7 +27946,7 @@
       </c>
       <c r="W179" t="inlineStr">
         <is>
-          <t>67ccc04ecc2150323bc052a4</t>
+          <t>67cd4be8b76385b031c3243f</t>
         </is>
       </c>
       <c r="X179" t="n">
@@ -28109,7 +28109,7 @@
       </c>
       <c r="W180" t="inlineStr">
         <is>
-          <t>67ccc04ecc2150323bc052e4</t>
+          <t>67cd4be8b76385b031c3247f</t>
         </is>
       </c>
       <c r="X180" t="n">
@@ -28272,7 +28272,7 @@
       </c>
       <c r="W181" t="inlineStr">
         <is>
-          <t>67ccc04ecc2150323bc052e2</t>
+          <t>67cd4be8b76385b031c3247d</t>
         </is>
       </c>
       <c r="X181" t="n">
@@ -28435,7 +28435,7 @@
       </c>
       <c r="W182" t="inlineStr">
         <is>
-          <t>67ccc04ecc2150323bc0525e</t>
+          <t>67cd4be8b76385b031c323f9</t>
         </is>
       </c>
       <c r="X182" t="n">
@@ -28598,7 +28598,7 @@
       </c>
       <c r="W183" t="inlineStr">
         <is>
-          <t>67ccc04ecc2150323bc052f9</t>
+          <t>67cd4be8b76385b031c32494</t>
         </is>
       </c>
       <c r="X183" t="n">
@@ -28761,7 +28761,7 @@
       </c>
       <c r="W184" t="inlineStr">
         <is>
-          <t>67ccc04ecc2150323bc0528a</t>
+          <t>67cd4be8b76385b031c32425</t>
         </is>
       </c>
       <c r="X184" t="n">
@@ -28924,7 +28924,7 @@
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>67ccc04ccc2150323bc0515a</t>
+          <t>67cd4be6b76385b031c322f5</t>
         </is>
       </c>
       <c r="X185" t="n">
@@ -29087,7 +29087,7 @@
       </c>
       <c r="W186" t="inlineStr">
         <is>
-          <t>67ccc04dcc2150323bc05237</t>
+          <t>67cd4be8b76385b031c323d2</t>
         </is>
       </c>
       <c r="X186" t="n">
@@ -29250,7 +29250,7 @@
       </c>
       <c r="W187" t="inlineStr">
         <is>
-          <t>67ccc04ccc2150323bc0517a</t>
+          <t>67cd4be6b76385b031c32315</t>
         </is>
       </c>
       <c r="X187" t="n">
@@ -29413,7 +29413,7 @@
       </c>
       <c r="W188" t="inlineStr">
         <is>
-          <t>67ccc04ccc2150323bc05176</t>
+          <t>67cd4be6b76385b031c32311</t>
         </is>
       </c>
       <c r="X188" t="n">
@@ -29576,7 +29576,7 @@
       </c>
       <c r="W189" t="inlineStr">
         <is>
-          <t>67ccc04ccc2150323bc05174</t>
+          <t>67cd4be6b76385b031c3230f</t>
         </is>
       </c>
       <c r="X189" t="n">
@@ -29739,7 +29739,7 @@
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>67ccc04ecc2150323bc052ba</t>
+          <t>67cd4be8b76385b031c32455</t>
         </is>
       </c>
       <c r="X190" t="n">
@@ -29902,7 +29902,7 @@
       </c>
       <c r="W191" t="inlineStr">
         <is>
-          <t>67ccc04ecc2150323bc052ba</t>
+          <t>67cd4be8b76385b031c32455</t>
         </is>
       </c>
       <c r="X191" t="n">
@@ -30065,7 +30065,7 @@
       </c>
       <c r="W192" t="inlineStr">
         <is>
-          <t>67ccc04dcc2150323bc05222</t>
+          <t>67cd4be7b76385b031c323bd</t>
         </is>
       </c>
       <c r="X192" t="n">
@@ -30228,7 +30228,7 @@
       </c>
       <c r="W193" t="inlineStr">
         <is>
-          <t>67ccc04dcc2150323bc05224</t>
+          <t>67cd4be7b76385b031c323bf</t>
         </is>
       </c>
       <c r="X193" t="n">
